--- a/dataset/LptD_LPS_State_SourceData_Fig2.xlsx
+++ b/dataset/LptD_LPS_State_SourceData_Fig2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiali/Desktop/Jiali/TAMU/Dynamics/dataset/HDX Data tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiali/Desktop/Jiali/TAMU/Dynamics/Seq2HDX/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0046C47-DB82-634B-8CC2-5818B853864C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D989F89-FB46-8348-B212-5FCB1B3387D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20680" windowHeight="12340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20680" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lps_KpE_State_aug2020" sheetId="1" r:id="rId1"/>
@@ -248,22 +248,22 @@
     <t>Retention time (min)</t>
   </si>
   <si>
-    <t>HDX time (min)</t>
-  </si>
-  <si>
-    <t>Uptake (Da)</t>
-  </si>
-  <si>
     <t>Uptake SD (Da)</t>
-  </si>
-  <si>
-    <t>Protein state</t>
   </si>
   <si>
     <t>LPS translocon LptDE</t>
   </si>
   <si>
     <t>Klebsiella pneumoniae</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>Update</t>
   </si>
 </sst>
 </file>
@@ -1087,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L817"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1122,13 +1122,13 @@
         <v>74</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -24806,7 +24806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685150F7-FD00-E949-BCA6-6C945CBCA665}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -24814,12 +24814,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
